--- a/biology/Zoologie/Adapedonta/Adapedonta.xlsx
+++ b/biology/Zoologie/Adapedonta/Adapedonta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Adapedonta sont un ordre de mollusques bivalves hétérodontes.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce taxon a d'abord été créé comme un sous-ordre des Eulamellibranchiata (ordre désormais obsolète) par Maurice Cossmann &amp; Albert Peyrot en 1909.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste des sous-taxons</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Selon (en) Référence WoRMS : (2 mai 2020) (+ liste espèces)
 super-famille Edmondioidea W. King, 1850 †
@@ -580,10 +596,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de l'ordre des Adapedonta, du grec ancien α-, a- privatif et δαπεδον dapedon, (« plancher / étage »), fait référence aux espèces « où la charnière commence à apparaître mais dont le plateau cardinal n'est pas encore formé »
-[2].
+.
 </t>
         </is>
       </c>
@@ -612,7 +630,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Maurice Cossmann et Albert Peyrot, Conchologie néogénique de l'Aquitaine - Tome 1 - Pélécypodes, 220 p. (lire en ligne)</t>
         </is>
